--- a/report_template/電動機特性計算表a_20250728.xlsx
+++ b/report_template/電動機特性計算表a_20250728.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horng\SF_2025\DATA1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyUser\Desktop\motor-characteristic-test\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13465EE4-509B-4A6B-B428-27CBCEAAC461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21645" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1 (2)" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>試驗日期 :</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,12 +350,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,6 +493,20 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -944,20 +963,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -966,34 +982,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,10 +1012,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,9 +1030,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1038,53 +1039,200 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,161 +1246,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,866 +1540,887 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="9" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="4.75" customWidth="1"/>
+    <col min="5" max="9" width="4.625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" customWidth="1"/>
-    <col min="14" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="16" width="4.44140625" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.5" customWidth="1"/>
+    <col min="14" max="15" width="4.625" customWidth="1"/>
+    <col min="16" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="17" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-    </row>
-    <row r="3" spans="1:18" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+    </row>
+    <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="89" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-    </row>
-    <row r="6" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
+    </row>
+    <row r="6" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="66" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="86" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="85"/>
-    </row>
-    <row r="7" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="L6" s="35"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="47"/>
+    </row>
+    <row r="7" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="23" t="s">
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="15" t="s">
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="23" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="23" t="s">
+      <c r="K8" s="22"/>
+      <c r="L8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="M8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="18" t="s">
+      <c r="N8" s="35"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="24" t="s">
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="22"/>
+      <c r="L9" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="12" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="85"/>
-    </row>
-    <row r="12" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
+    </row>
+    <row r="12" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="12" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="85"/>
-    </row>
-    <row r="13" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
+    </row>
+    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-    </row>
-    <row r="14" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-    </row>
-    <row r="15" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="B13" s="57"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+    </row>
+    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+    </row>
+    <row r="15" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="69" t="s">
+      <c r="E16" s="76"/>
+      <c r="F16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="69" t="s">
+      <c r="G16" s="76"/>
+      <c r="H16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="76"/>
+      <c r="J16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="69" t="s">
+      <c r="M16" s="76"/>
+      <c r="N16" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="70"/>
-      <c r="P16" s="69" t="s">
+      <c r="O16" s="76"/>
+      <c r="P16" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="83"/>
-    </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="6" t="s">
+      <c r="Q16" s="69"/>
+    </row>
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91"/>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="62" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="62" t="s">
+      <c r="G17" s="75"/>
+      <c r="H17" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="27" t="s">
+      <c r="I17" s="75"/>
+      <c r="J17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="62" t="s">
+      <c r="M17" s="75"/>
+      <c r="N17" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="68"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63"/>
-    </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="O17" s="75"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="87"/>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="60">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="72">
         <v>0</v>
       </c>
-      <c r="Q18" s="61"/>
-    </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="Q18" s="73"/>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="60">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="72">
         <v>0.25</v>
       </c>
-      <c r="Q19" s="61"/>
-    </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="Q19" s="73"/>
+    </row>
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="60">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="72">
         <v>0.5</v>
       </c>
-      <c r="Q20" s="61"/>
-    </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="Q20" s="73"/>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="60">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="72">
         <v>0.75</v>
       </c>
-      <c r="Q21" s="61"/>
-    </row>
-    <row r="22" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="Q21" s="73"/>
+    </row>
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="60">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="72">
         <v>1</v>
       </c>
-      <c r="Q22" s="61"/>
-    </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="Q22" s="73"/>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="60">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="72">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q23" s="61"/>
-    </row>
-    <row r="24" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="Q23" s="73"/>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="60">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="72">
         <v>1.25</v>
       </c>
-      <c r="Q24" s="61"/>
-    </row>
-    <row r="25" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="Q24" s="73"/>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="42" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="Q25" s="84"/>
-    </row>
-    <row r="26" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="Q25" s="71"/>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="42" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="84"/>
+      <c r="Q26" s="71"/>
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="42" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="84"/>
+      <c r="Q27" s="71"/>
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="42" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="84"/>
+      <c r="Q28" s="71"/>
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="26"/>
-    </row>
-    <row r="30" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+    <row r="29" spans="1:20" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="40" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="35" t="s">
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="40" t="s">
+      <c r="K30" s="32"/>
+      <c r="L30" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="33" t="s">
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R41" s="1"/>
+    <row r="31" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:Q14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:B7"/>
@@ -2417,106 +2445,6 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:Q14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
